--- a/src/data/dummyData.xlsx
+++ b/src/data/dummyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\Documents\CAB302 Electronic Asset Trading Platform\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\302\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B9B08-5DA0-472B-90AB-1A172F19F97D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832E4E4F-7078-4074-95CA-1C9569B7C126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{95D1BF4C-1AA3-44B6-8AF5-64C421DB6AF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{95D1BF4C-1AA3-44B6-8AF5-64C421DB6AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>Users Table</t>
   </si>
@@ -315,6 +315,36 @@
   </si>
   <si>
     <t>outstandingORders = SELECT * FROM ORDERS where orderStatus = Incomplete and userID=35</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>8 digits- 10 all together including code</t>
+  </si>
+  <si>
+    <t>IT00000034</t>
   </si>
 </sst>
 </file>
@@ -672,17 +702,17 @@
       <selection activeCell="E4" sqref="E4:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -702,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -722,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -742,7 +772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -762,7 +792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -782,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -802,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -822,7 +852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -849,20 +879,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0BEF3A-2CC6-4357-8E7F-B930040F22BC}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -876,7 +908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -889,8 +921,17 @@
       <c r="D2">
         <v>90000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>56</v>
       </c>
@@ -903,8 +944,11 @@
       <c r="D3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -917,8 +961,11 @@
       <c r="D4">
         <v>60000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
@@ -931,8 +978,11 @@
       <c r="D5">
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -945,8 +995,11 @@
       <c r="D6">
         <v>80000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -959,8 +1012,11 @@
       <c r="D7">
         <v>95000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -973,8 +1029,11 @@
       <c r="D8">
         <v>50000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>84</v>
       </c>
@@ -987,8 +1046,11 @@
       <c r="D9">
         <v>76000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1000,6 +1062,9 @@
       </c>
       <c r="D10">
         <v>23000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1015,9 +1080,9 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -1033,7 +1098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>56</v>
       </c>
@@ -1041,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -1049,7 +1114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>66</v>
       </c>
@@ -1057,7 +1122,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1065,7 +1130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1073,7 +1138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1081,7 +1146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>34</v>
       </c>
@@ -1089,7 +1154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>56</v>
       </c>
@@ -1097,7 +1162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>84</v>
       </c>
@@ -1105,7 +1170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1113,7 +1178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -1121,7 +1186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>66</v>
       </c>
@@ -1129,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1137,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1145,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1166,14 +1231,14 @@
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1187,7 +1252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>95</v>
       </c>
@@ -1201,7 +1266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1215,7 +1280,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
@@ -1229,7 +1294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>341</v>
       </c>
@@ -1243,7 +1308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99</v>
       </c>
@@ -1257,7 +1322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>67</v>
       </c>
@@ -1271,7 +1336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1285,7 +1350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>93</v>
       </c>
@@ -1299,7 +1364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>89</v>
       </c>
@@ -1313,7 +1378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>66</v>
       </c>
@@ -1327,7 +1392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1341,7 +1406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>64</v>
       </c>
@@ -1355,7 +1420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1369,7 +1434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1383,7 +1448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1397,7 +1462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1411,7 +1476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>98</v>
       </c>
@@ -1425,7 +1490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>978</v>
       </c>
@@ -1439,7 +1504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>34</v>
       </c>
@@ -1453,7 +1518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1480,14 +1545,14 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34</v>
       </c>
@@ -1515,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>56</v>
       </c>
@@ -1529,7 +1594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1543,7 +1608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>66</v>
       </c>
@@ -1557,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1571,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1585,7 +1650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1599,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>84</v>
       </c>
@@ -1613,7 +1678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1627,7 +1692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -1641,7 +1706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>56</v>
       </c>
@@ -1655,7 +1720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
@@ -1669,7 +1734,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>66</v>
       </c>
@@ -1683,7 +1748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1697,7 +1762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1711,7 +1776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1725,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>84</v>
       </c>
@@ -1739,7 +1804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>94</v>
       </c>
@@ -1753,7 +1818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>34</v>
       </c>
@@ -1767,7 +1832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>56</v>
       </c>
@@ -1781,7 +1846,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1795,7 +1860,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>66</v>
       </c>
@@ -1809,7 +1874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1823,7 +1888,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1837,7 +1902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1851,7 +1916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>84</v>
       </c>
@@ -1865,7 +1930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>94</v>
       </c>
@@ -1888,24 +1953,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982F70FB-BAE4-4C5C-B17E-751E858A5498}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1940,7 +2005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1973,7 +2038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2006,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2039,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2072,7 +2137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2105,7 +2170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2138,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2171,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2204,7 +2269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2237,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2270,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2303,7 +2368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>91</v>
       </c>
